--- a/Género/Violencia contra Mujer/Femicidios Actualizado.xlsx
+++ b/Género/Violencia contra Mujer/Femicidios Actualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BF060E-1717-465E-BF1E-878190FEBBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9371C4-20F3-4102-BEDF-FB4F6472F446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE5E2C69-330B-43A2-AB91-270594E6FDC2}"/>
   </bookViews>
@@ -11904,7 +11904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11923,16 +11923,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11944,7 +11939,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -12026,9 +12024,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -12046,76 +12041,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12210,13 +12135,13 @@
   </sortState>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{AFA328BC-B1F6-487F-9229-7C317EC89FD8}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{0179DE5D-BA12-4586-904F-3245A847CA88}" name="Fecha" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0179DE5D-BA12-4586-904F-3245A847CA88}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{A423EA8F-9392-414E-B23D-F01C5BC65807}" name="Codreg"/>
     <tableColumn id="4" xr3:uid="{AA57850E-461A-4687-9A6F-3427A7E4D28D}" name="Codcom"/>
     <tableColumn id="5" xr3:uid="{23FAC148-1A5A-4665-AE40-9836F9AD1C77}" name="Comuna"/>
     <tableColumn id="6" xr3:uid="{2F10FD53-847E-49DD-A4FB-1C6087635F6C}" name="Región"/>
     <tableColumn id="7" xr3:uid="{09F8642E-4E4F-42F2-A5DC-7A4F4DC43545}" name="Nombre víctima"/>
-    <tableColumn id="8" xr3:uid="{DA3162F1-0484-40C1-B623-71D0E8454C54}" name="Edad Víctima" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{DA3162F1-0484-40C1-B623-71D0E8454C54}" name="Edad Víctima" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{4E382CDC-6CB2-4FBF-998B-77B24ACAB8CD}" name="Nacionalidad Víctima"/>
     <tableColumn id="10" xr3:uid="{DBEA2817-E106-494A-B17F-770EF12F2041}" name="Ocupación Víctima"/>
     <tableColumn id="11" xr3:uid="{AE91F911-EBAF-47BD-9EA5-59BC5460CD54}" name="Información sobre el hecho"/>
@@ -12224,7 +12149,7 @@
     <tableColumn id="13" xr3:uid="{8EC2D936-D836-4936-991F-D29DFAA17CF2}" name="Relación víctima-femicida"/>
     <tableColumn id="16" xr3:uid="{D858A5D0-7245-48F3-88F1-12E942702570}" name="Categoría Red Chilena"/>
     <tableColumn id="17" xr3:uid="{8CC48998-30CF-464A-BEFF-ADF76FDB766F}" name="Nombre femicida"/>
-    <tableColumn id="18" xr3:uid="{520C810F-A4FD-40FB-87B6-9D405744914B}" name="Edad Femicida" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{520C810F-A4FD-40FB-87B6-9D405744914B}" name="Edad Femicida" dataDxfId="3"/>
     <tableColumn id="19" xr3:uid="{8DD7ADDD-AAF2-4BCF-AA91-FA43AE47A547}" name="Nacionalidad Femicida"/>
     <tableColumn id="20" xr3:uid="{5CB81593-BB92-49A0-9D61-28A95B7DA78E}" name="Ocupación Femicida"/>
     <tableColumn id="21" xr3:uid="{457A9F8E-A8E2-474D-AAB6-D17E45355AA8}" name="Suicidio"/>
@@ -12242,8 +12167,8 @@
     <tableColumn id="33" xr3:uid="{39E498DA-37C5-4DE9-A0BC-D5ED438C963A}" name="Sentencia penal adicional"/>
     <tableColumn id="34" xr3:uid="{16B0224D-A45E-4E48-AE8C-E3B88DE0B53C}" name="Información medios 1"/>
     <tableColumn id="35" xr3:uid="{C549522F-A97C-497B-97BF-880402CD5E48}" name="Información medios 2"/>
-    <tableColumn id="36" xr3:uid="{2544187A-87FA-45CF-A8F1-CBD577320BF7}" name="RED" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{139852B3-BBAB-4756-BCBF-74502C46D8BD}" name="MINISTERIO" dataDxfId="0"/>
+    <tableColumn id="36" xr3:uid="{2544187A-87FA-45CF-A8F1-CBD577320BF7}" name="RED" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{139852B3-BBAB-4756-BCBF-74502C46D8BD}" name="MINISTERIO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12549,7 +12474,7 @@
   <dimension ref="A1:AI677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:B677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12665,7 +12590,7 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>42498</v>
       </c>
       <c r="C2">
@@ -18088,7 +18013,7 @@
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="3">
         <v>42502</v>
       </c>
       <c r="C53">
@@ -19259,10 +19184,10 @@
       <c r="B64" s="3">
         <v>43883</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>5</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>5804</v>
       </c>
       <c r="E64" t="s">
@@ -19274,7 +19199,7 @@
       <c r="G64" t="s">
         <v>555</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="14">
         <v>23</v>
       </c>
       <c r="I64" t="s">
@@ -19298,7 +19223,7 @@
       <c r="O64" t="s">
         <v>358</v>
       </c>
-      <c r="P64" s="15"/>
+      <c r="P64" s="14"/>
       <c r="Q64" t="s">
         <v>46</v>
       </c>
@@ -19329,7 +19254,7 @@
       <c r="Z64" t="s">
         <v>367</v>
       </c>
-      <c r="AA64" s="15" t="s">
+      <c r="AA64" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB64" t="s">
@@ -20636,10 +20561,10 @@
       <c r="B77" s="3">
         <v>43972</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="14">
         <v>8</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>8102</v>
       </c>
       <c r="E77" t="s">
@@ -20651,7 +20576,7 @@
       <c r="G77" t="s">
         <v>647</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="14">
         <v>68</v>
       </c>
       <c r="I77" t="s">
@@ -20675,7 +20600,7 @@
       <c r="O77" t="s">
         <v>650</v>
       </c>
-      <c r="P77" s="15"/>
+      <c r="P77" s="14"/>
       <c r="Q77" t="s">
         <v>46</v>
       </c>
@@ -20706,7 +20631,7 @@
       <c r="Z77" t="s">
         <v>55</v>
       </c>
-      <c r="AA77" s="15" t="s">
+      <c r="AA77" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB77" t="s">
@@ -23092,7 +23017,7 @@
       <c r="F100" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="G100" s="15" t="s">
         <v>787</v>
       </c>
       <c r="H100" s="11">
@@ -29449,10 +29374,10 @@
       <c r="B160" s="3">
         <v>43996</v>
       </c>
-      <c r="C160" s="15">
+      <c r="C160" s="14">
         <v>9</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="14">
         <v>9103</v>
       </c>
       <c r="E160" t="s">
@@ -29464,7 +29389,7 @@
       <c r="G160" t="s">
         <v>1166</v>
       </c>
-      <c r="H160" s="15">
+      <c r="H160" s="14">
         <v>48</v>
       </c>
       <c r="I160" t="s">
@@ -29488,7 +29413,7 @@
       <c r="O160" t="s">
         <v>1168</v>
       </c>
-      <c r="P160" s="15">
+      <c r="P160" s="14">
         <v>46</v>
       </c>
       <c r="Q160" t="s">
@@ -29521,7 +29446,7 @@
       <c r="Z160" t="s">
         <v>112</v>
       </c>
-      <c r="AA160" s="15" t="s">
+      <c r="AA160" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB160" t="s">
@@ -29764,10 +29689,10 @@
       <c r="B163" s="3">
         <v>43898</v>
       </c>
-      <c r="C163" s="15">
+      <c r="C163" s="14">
         <v>12</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="14">
         <v>12101</v>
       </c>
       <c r="E163" t="s">
@@ -29779,7 +29704,7 @@
       <c r="G163" t="s">
         <v>1183</v>
       </c>
-      <c r="H163" s="15">
+      <c r="H163" s="14">
         <v>54</v>
       </c>
       <c r="I163" t="s">
@@ -29803,7 +29728,7 @@
       <c r="O163" t="s">
         <v>649</v>
       </c>
-      <c r="P163" s="15"/>
+      <c r="P163" s="14"/>
       <c r="Q163" t="s">
         <v>39</v>
       </c>
@@ -29834,7 +29759,7 @@
       <c r="Z163" t="s">
         <v>55</v>
       </c>
-      <c r="AA163" s="15" t="s">
+      <c r="AA163" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB163" t="s">
@@ -30930,7 +30855,7 @@
       <c r="A174" t="s">
         <v>35</v>
       </c>
-      <c r="B174" s="17">
+      <c r="B174" s="3">
         <v>44120</v>
       </c>
       <c r="C174">
@@ -35493,10 +35418,10 @@
       <c r="B217" s="3">
         <v>43835</v>
       </c>
-      <c r="C217" s="15">
+      <c r="C217" s="14">
         <v>14</v>
       </c>
-      <c r="D217" s="15">
+      <c r="D217" s="14">
         <v>14101</v>
       </c>
       <c r="E217" t="s">
@@ -35508,7 +35433,7 @@
       <c r="G217" t="s">
         <v>1495</v>
       </c>
-      <c r="H217" s="15">
+      <c r="H217" s="14">
         <v>53</v>
       </c>
       <c r="I217" t="s">
@@ -35532,7 +35457,7 @@
       <c r="O217" t="s">
         <v>1497</v>
       </c>
-      <c r="P217" s="15">
+      <c r="P217" s="14">
         <v>49</v>
       </c>
       <c r="Q217" t="s">
@@ -35565,7 +35490,7 @@
       <c r="Z217" t="s">
         <v>112</v>
       </c>
-      <c r="AA217" s="18">
+      <c r="AA217" s="16">
         <v>43894</v>
       </c>
       <c r="AB217" t="s">
@@ -43773,10 +43698,10 @@
       <c r="B295" s="3">
         <v>44247</v>
       </c>
-      <c r="C295" s="15">
+      <c r="C295" s="14">
         <v>5</v>
       </c>
-      <c r="D295" s="15">
+      <c r="D295" s="14">
         <v>5109</v>
       </c>
       <c r="E295" t="s">
@@ -45905,7 +45830,7 @@
       <c r="A315" t="s">
         <v>35</v>
       </c>
-      <c r="B315" s="14">
+      <c r="B315" s="3">
         <v>42510</v>
       </c>
       <c r="C315">
@@ -55166,10 +55091,10 @@
       <c r="B402" s="3">
         <v>43932</v>
       </c>
-      <c r="C402" s="15">
+      <c r="C402" s="14">
         <v>6</v>
       </c>
-      <c r="D402" s="15">
+      <c r="D402" s="14">
         <v>6205</v>
       </c>
       <c r="E402" t="s">
@@ -55181,7 +55106,7 @@
       <c r="G402" t="s">
         <v>2498</v>
       </c>
-      <c r="H402" s="15">
+      <c r="H402" s="14">
         <v>49</v>
       </c>
       <c r="I402" t="s">
@@ -55205,7 +55130,7 @@
       <c r="O402" t="s">
         <v>2500</v>
       </c>
-      <c r="P402" s="15">
+      <c r="P402" s="14">
         <v>53</v>
       </c>
       <c r="Q402" t="s">
@@ -55238,7 +55163,7 @@
       <c r="Z402" t="s">
         <v>90</v>
       </c>
-      <c r="AA402" s="18">
+      <c r="AA402" s="16">
         <v>43932</v>
       </c>
       <c r="AB402" t="s">
@@ -63338,10 +63263,10 @@
       <c r="B479" s="3">
         <v>43906</v>
       </c>
-      <c r="C479" s="15">
+      <c r="C479" s="14">
         <v>13</v>
       </c>
-      <c r="D479" s="15">
+      <c r="D479" s="14">
         <v>13301</v>
       </c>
       <c r="E479" t="s">
@@ -63353,7 +63278,7 @@
       <c r="G479" t="s">
         <v>2900</v>
       </c>
-      <c r="H479" s="15">
+      <c r="H479" s="14">
         <v>24</v>
       </c>
       <c r="I479" t="s">
@@ -63377,7 +63302,7 @@
       <c r="O479" t="s">
         <v>2902</v>
       </c>
-      <c r="P479" s="15">
+      <c r="P479" s="14">
         <v>22</v>
       </c>
       <c r="Q479" t="s">
@@ -63410,7 +63335,7 @@
       <c r="Z479" t="s">
         <v>112</v>
       </c>
-      <c r="AA479" s="15" t="s">
+      <c r="AA479" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB479" t="s">
@@ -72553,10 +72478,10 @@
       <c r="B566" s="3">
         <v>43946</v>
       </c>
-      <c r="C566" s="15">
+      <c r="C566" s="14">
         <v>15</v>
       </c>
-      <c r="D566" s="15">
+      <c r="D566" s="14">
         <v>15101</v>
       </c>
       <c r="E566" t="s">
@@ -72568,7 +72493,7 @@
       <c r="G566" t="s">
         <v>3351</v>
       </c>
-      <c r="H566" s="15">
+      <c r="H566" s="14">
         <v>19</v>
       </c>
       <c r="I566" t="s">
@@ -72592,7 +72517,7 @@
       <c r="O566" t="s">
         <v>3353</v>
       </c>
-      <c r="P566" s="15">
+      <c r="P566" s="14">
         <v>21</v>
       </c>
       <c r="Q566" t="s">
@@ -72625,7 +72550,7 @@
       <c r="Z566" t="s">
         <v>112</v>
       </c>
-      <c r="AA566" s="18">
+      <c r="AA566" s="16">
         <v>43946</v>
       </c>
       <c r="AB566" t="s">
@@ -72660,10 +72585,10 @@
       <c r="B567" s="3">
         <v>43985</v>
       </c>
-      <c r="C567" s="15">
+      <c r="C567" s="14">
         <v>7</v>
       </c>
-      <c r="D567" s="15">
+      <c r="D567" s="14">
         <v>7102</v>
       </c>
       <c r="E567" t="s">
@@ -72675,7 +72600,7 @@
       <c r="G567" t="s">
         <v>3356</v>
       </c>
-      <c r="H567" s="15">
+      <c r="H567" s="14">
         <v>25</v>
       </c>
       <c r="I567" t="s">
@@ -72699,7 +72624,7 @@
       <c r="O567" t="s">
         <v>3358</v>
       </c>
-      <c r="P567" s="15">
+      <c r="P567" s="14">
         <v>45</v>
       </c>
       <c r="Q567" t="s">
@@ -72732,7 +72657,7 @@
       <c r="Z567" t="s">
         <v>112</v>
       </c>
-      <c r="AA567" s="18">
+      <c r="AA567" s="16">
         <v>43985</v>
       </c>
       <c r="AB567" t="s">
@@ -75204,10 +75129,10 @@
       <c r="B591" s="3">
         <v>44017</v>
       </c>
-      <c r="C591" s="15">
+      <c r="C591" s="14">
         <v>6</v>
       </c>
-      <c r="D591" s="15">
+      <c r="D591" s="14">
         <v>6105</v>
       </c>
       <c r="E591" t="s">
@@ -75219,7 +75144,7 @@
       <c r="G591" t="s">
         <v>3490</v>
       </c>
-      <c r="H591" s="15">
+      <c r="H591" s="14">
         <v>29</v>
       </c>
       <c r="I591" t="s">
@@ -75243,7 +75168,7 @@
       <c r="O591" t="s">
         <v>3492</v>
       </c>
-      <c r="P591" s="15">
+      <c r="P591" s="14">
         <v>41</v>
       </c>
       <c r="Q591" t="s">
@@ -75276,7 +75201,7 @@
       <c r="Z591" t="s">
         <v>112</v>
       </c>
-      <c r="AA591" s="15" t="s">
+      <c r="AA591" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB591" t="s">
@@ -78075,10 +78000,10 @@
       <c r="B618" s="3">
         <v>43890</v>
       </c>
-      <c r="C618" s="15">
+      <c r="C618" s="14">
         <v>1</v>
       </c>
-      <c r="D618" s="15">
+      <c r="D618" s="14">
         <v>1107</v>
       </c>
       <c r="E618" t="s">
@@ -78090,7 +78015,7 @@
       <c r="G618" t="s">
         <v>3627</v>
       </c>
-      <c r="H618" s="15">
+      <c r="H618" s="14">
         <v>20</v>
       </c>
       <c r="I618" t="s">
@@ -78114,7 +78039,7 @@
       <c r="O618" t="s">
         <v>3629</v>
       </c>
-      <c r="P618" s="15">
+      <c r="P618" s="14">
         <v>17</v>
       </c>
       <c r="Q618" t="s">
@@ -78147,7 +78072,7 @@
       <c r="Z618" t="s">
         <v>112</v>
       </c>
-      <c r="AA618" s="15" t="s">
+      <c r="AA618" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB618" t="s">
@@ -78821,10 +78746,10 @@
       <c r="B625" s="3">
         <v>43843</v>
       </c>
-      <c r="C625" s="15">
+      <c r="C625" s="14">
         <v>7</v>
       </c>
-      <c r="D625" s="15">
+      <c r="D625" s="14">
         <v>7404</v>
       </c>
       <c r="E625" t="s">
@@ -78836,7 +78761,7 @@
       <c r="G625" t="s">
         <v>3665</v>
       </c>
-      <c r="H625" s="15">
+      <c r="H625" s="14">
         <v>59</v>
       </c>
       <c r="I625" t="s">
@@ -78860,7 +78785,7 @@
       <c r="O625" t="s">
         <v>3667</v>
       </c>
-      <c r="P625" s="15">
+      <c r="P625" s="14">
         <v>31</v>
       </c>
       <c r="Q625" t="s">
@@ -78893,7 +78818,7 @@
       <c r="Z625" t="s">
         <v>112</v>
       </c>
-      <c r="AA625" s="15" t="s">
+      <c r="AA625" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB625" t="s">
@@ -82457,7 +82382,7 @@
       <c r="G659" t="s">
         <v>3829</v>
       </c>
-      <c r="H659" s="19">
+      <c r="H659" s="17">
         <v>29</v>
       </c>
       <c r="I659" t="s">
@@ -82481,7 +82406,7 @@
       <c r="O659" t="s">
         <v>3832</v>
       </c>
-      <c r="P659" s="19">
+      <c r="P659" s="17">
         <v>31</v>
       </c>
       <c r="Q659" t="s">
@@ -82564,7 +82489,7 @@
       <c r="G660" t="s">
         <v>3835</v>
       </c>
-      <c r="H660" s="19">
+      <c r="H660" s="17">
         <v>31</v>
       </c>
       <c r="I660" t="s">
@@ -82588,7 +82513,7 @@
       <c r="O660" t="s">
         <v>3838</v>
       </c>
-      <c r="P660" s="19">
+      <c r="P660" s="17">
         <v>36</v>
       </c>
       <c r="Q660" t="s">
@@ -82656,10 +82581,10 @@
       <c r="B661" s="3">
         <v>43878</v>
       </c>
-      <c r="C661" s="15">
+      <c r="C661" s="14">
         <v>13</v>
       </c>
-      <c r="D661" s="15">
+      <c r="D661" s="14">
         <v>13119</v>
       </c>
       <c r="E661" t="s">
@@ -82671,7 +82596,7 @@
       <c r="G661" t="s">
         <v>3842</v>
       </c>
-      <c r="H661" s="20">
+      <c r="H661" s="18">
         <v>31</v>
       </c>
       <c r="I661" t="s">
@@ -82695,7 +82620,7 @@
       <c r="O661" t="s">
         <v>3844</v>
       </c>
-      <c r="P661" s="20">
+      <c r="P661" s="18">
         <v>40</v>
       </c>
       <c r="Q661" t="s">
@@ -82728,7 +82653,7 @@
       <c r="Z661" t="s">
         <v>112</v>
       </c>
-      <c r="AA661" s="15" t="s">
+      <c r="AA661" s="14" t="s">
         <v>55</v>
       </c>
       <c r="AB661" t="s">
@@ -82778,7 +82703,7 @@
       <c r="G662" t="s">
         <v>3848</v>
       </c>
-      <c r="H662" s="19">
+      <c r="H662" s="17">
         <v>42</v>
       </c>
       <c r="I662" t="s">
@@ -82802,7 +82727,7 @@
       <c r="O662" t="s">
         <v>3849</v>
       </c>
-      <c r="P662" s="19">
+      <c r="P662" s="17">
         <v>38</v>
       </c>
       <c r="Q662" t="s">
@@ -82885,7 +82810,7 @@
       <c r="G663" t="s">
         <v>3851</v>
       </c>
-      <c r="H663" s="19">
+      <c r="H663" s="17">
         <v>26</v>
       </c>
       <c r="I663" t="s">
@@ -82909,7 +82834,7 @@
       <c r="O663" t="s">
         <v>3853</v>
       </c>
-      <c r="P663" s="19">
+      <c r="P663" s="17">
         <v>37</v>
       </c>
       <c r="Q663" t="s">
@@ -82992,7 +82917,7 @@
       <c r="G664" t="s">
         <v>3857</v>
       </c>
-      <c r="H664" s="19">
+      <c r="H664" s="17">
         <v>28</v>
       </c>
       <c r="I664" t="s">
@@ -83016,7 +82941,7 @@
       <c r="O664" t="s">
         <v>3858</v>
       </c>
-      <c r="P664" s="19">
+      <c r="P664" s="17">
         <v>29</v>
       </c>
       <c r="Q664" t="s">
@@ -83099,7 +83024,7 @@
       <c r="G665" t="s">
         <v>3861</v>
       </c>
-      <c r="H665" s="19">
+      <c r="H665" s="17">
         <v>19</v>
       </c>
       <c r="I665" t="s">
@@ -83123,7 +83048,7 @@
       <c r="O665" t="s">
         <v>3862</v>
       </c>
-      <c r="P665" s="19">
+      <c r="P665" s="17">
         <v>24</v>
       </c>
       <c r="Q665" t="s">
@@ -83203,7 +83128,7 @@
       <c r="G666" t="s">
         <v>3865</v>
       </c>
-      <c r="H666" s="19">
+      <c r="H666" s="17">
         <v>28</v>
       </c>
       <c r="I666" t="s">
@@ -83227,7 +83152,7 @@
       <c r="O666" t="s">
         <v>3867</v>
       </c>
-      <c r="P666" s="19">
+      <c r="P666" s="17">
         <v>32</v>
       </c>
       <c r="Q666" t="s">
@@ -83310,7 +83235,7 @@
       <c r="G667" t="s">
         <v>3870</v>
       </c>
-      <c r="H667" s="19">
+      <c r="H667" s="17">
         <v>28</v>
       </c>
       <c r="I667" t="s">
@@ -83334,7 +83259,7 @@
       <c r="O667" t="s">
         <v>3872</v>
       </c>
-      <c r="P667" s="19">
+      <c r="P667" s="17">
         <v>28</v>
       </c>
       <c r="Q667" t="s">
@@ -83417,7 +83342,7 @@
       <c r="G668" t="s">
         <v>3877</v>
       </c>
-      <c r="H668" s="19">
+      <c r="H668" s="17">
         <v>27</v>
       </c>
       <c r="I668" t="s">
@@ -83441,7 +83366,7 @@
       <c r="O668" t="s">
         <v>3879</v>
       </c>
-      <c r="P668" s="19">
+      <c r="P668" s="17">
         <v>32</v>
       </c>
       <c r="Q668" t="s">
@@ -83524,7 +83449,7 @@
       <c r="G669" t="s">
         <v>3883</v>
       </c>
-      <c r="H669" s="19">
+      <c r="H669" s="17">
         <v>44</v>
       </c>
       <c r="I669" t="s">
@@ -83548,7 +83473,7 @@
       <c r="O669" t="s">
         <v>3884</v>
       </c>
-      <c r="P669" s="19">
+      <c r="P669" s="17">
         <v>52</v>
       </c>
       <c r="Q669" t="s">
@@ -83628,7 +83553,7 @@
       <c r="G670" t="s">
         <v>3886</v>
       </c>
-      <c r="H670" s="19">
+      <c r="H670" s="17">
         <v>37</v>
       </c>
       <c r="I670" t="s">
@@ -83652,7 +83577,7 @@
       <c r="O670" t="s">
         <v>3889</v>
       </c>
-      <c r="P670" s="19">
+      <c r="P670" s="17">
         <v>40</v>
       </c>
       <c r="Q670" t="s">
@@ -83735,7 +83660,7 @@
       <c r="G671" t="s">
         <v>3894</v>
       </c>
-      <c r="H671" s="19">
+      <c r="H671" s="17">
         <v>52</v>
       </c>
       <c r="I671" t="s">
@@ -83759,7 +83684,7 @@
       <c r="O671" t="s">
         <v>3896</v>
       </c>
-      <c r="P671" s="19">
+      <c r="P671" s="17">
         <v>51</v>
       </c>
       <c r="Q671" t="s">
@@ -83949,7 +83874,7 @@
       <c r="G673" t="s">
         <v>3907</v>
       </c>
-      <c r="H673" s="19">
+      <c r="H673" s="17">
         <v>28</v>
       </c>
       <c r="I673" t="s">
@@ -83973,7 +83898,7 @@
       <c r="O673" t="s">
         <v>3910</v>
       </c>
-      <c r="P673" s="19">
+      <c r="P673" s="17">
         <v>30</v>
       </c>
       <c r="Q673" t="s">
@@ -84035,246 +83960,246 @@
       </c>
     </row>
     <row r="674" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A674" s="16" t="s">
+      <c r="A674" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="B674" s="21">
+      <c r="B674" s="3">
         <v>43500</v>
       </c>
-      <c r="C674" s="16">
+      <c r="C674" s="15">
         <v>13</v>
       </c>
-      <c r="D674" s="16">
+      <c r="D674" s="15">
         <v>13105</v>
       </c>
-      <c r="E674" s="16" t="s">
+      <c r="E674" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F674" s="16" t="s">
+      <c r="F674" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G674" s="16" t="s">
+      <c r="G674" s="15" t="s">
         <v>3914</v>
       </c>
-      <c r="H674" s="22">
+      <c r="H674" s="19">
         <v>85</v>
       </c>
-      <c r="I674" s="16"/>
-      <c r="J674" s="16"/>
-      <c r="K674" s="16" t="s">
+      <c r="I674" s="15"/>
+      <c r="J674" s="15"/>
+      <c r="K674" s="15" t="s">
         <v>3915</v>
       </c>
-      <c r="L674" s="16"/>
-      <c r="M674" s="16"/>
-      <c r="N674" s="16"/>
-      <c r="O674" s="16"/>
-      <c r="P674" s="22"/>
-      <c r="Q674" s="16"/>
-      <c r="R674" s="16"/>
-      <c r="S674" s="16" t="s">
+      <c r="L674" s="15"/>
+      <c r="M674" s="15"/>
+      <c r="N674" s="15"/>
+      <c r="O674" s="15"/>
+      <c r="P674" s="19"/>
+      <c r="Q674" s="15"/>
+      <c r="R674" s="15"/>
+      <c r="S674" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="T674" s="16"/>
-      <c r="U674" s="16"/>
-      <c r="V674" s="16"/>
-      <c r="W674" s="16"/>
-      <c r="X674" s="16"/>
-      <c r="Y674" s="16"/>
-      <c r="Z674" s="16"/>
-      <c r="AA674" s="16"/>
-      <c r="AB674" s="16"/>
-      <c r="AC674" s="16"/>
-      <c r="AD674" s="16"/>
-      <c r="AE674" s="16"/>
-      <c r="AF674" s="16"/>
-      <c r="AG674" s="16"/>
-      <c r="AH674" s="23" t="s">
+      <c r="T674" s="15"/>
+      <c r="U674" s="15"/>
+      <c r="V674" s="15"/>
+      <c r="W674" s="15"/>
+      <c r="X674" s="15"/>
+      <c r="Y674" s="15"/>
+      <c r="Z674" s="15"/>
+      <c r="AA674" s="15"/>
+      <c r="AB674" s="15"/>
+      <c r="AC674" s="15"/>
+      <c r="AD674" s="15"/>
+      <c r="AE674" s="15"/>
+      <c r="AF674" s="15"/>
+      <c r="AG674" s="15"/>
+      <c r="AH674" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI674" s="24" t="s">
+      <c r="AI674" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="675" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A675" s="16" t="s">
+      <c r="A675" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="B675" s="21">
+      <c r="B675" s="3">
         <v>44139</v>
       </c>
-      <c r="C675" s="16">
+      <c r="C675" s="15">
         <v>13</v>
       </c>
-      <c r="D675" s="16">
+      <c r="D675" s="15">
         <v>13301</v>
       </c>
-      <c r="E675" s="16" t="s">
+      <c r="E675" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="F675" s="16" t="s">
+      <c r="F675" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G675" s="16" t="s">
+      <c r="G675" s="15" t="s">
         <v>3916</v>
       </c>
-      <c r="H675" s="22">
+      <c r="H675" s="19">
         <v>69</v>
       </c>
-      <c r="I675" s="16"/>
-      <c r="J675" s="16"/>
-      <c r="K675" s="16" t="s">
+      <c r="I675" s="15"/>
+      <c r="J675" s="15"/>
+      <c r="K675" s="15" t="s">
         <v>3917</v>
       </c>
-      <c r="L675" s="16"/>
-      <c r="M675" s="16"/>
-      <c r="N675" s="16"/>
-      <c r="O675" s="16"/>
-      <c r="P675" s="22"/>
-      <c r="Q675" s="16"/>
-      <c r="R675" s="16"/>
-      <c r="S675" s="16" t="s">
+      <c r="L675" s="15"/>
+      <c r="M675" s="15"/>
+      <c r="N675" s="15"/>
+      <c r="O675" s="15"/>
+      <c r="P675" s="19"/>
+      <c r="Q675" s="15"/>
+      <c r="R675" s="15"/>
+      <c r="S675" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="T675" s="16"/>
-      <c r="U675" s="16"/>
-      <c r="V675" s="16"/>
-      <c r="W675" s="16"/>
-      <c r="X675" s="16"/>
-      <c r="Y675" s="16"/>
-      <c r="Z675" s="16"/>
-      <c r="AA675" s="16"/>
-      <c r="AB675" s="16"/>
-      <c r="AC675" s="16"/>
-      <c r="AD675" s="16"/>
-      <c r="AE675" s="16"/>
-      <c r="AF675" s="16"/>
-      <c r="AG675" s="16"/>
-      <c r="AH675" s="23" t="s">
+      <c r="T675" s="15"/>
+      <c r="U675" s="15"/>
+      <c r="V675" s="15"/>
+      <c r="W675" s="15"/>
+      <c r="X675" s="15"/>
+      <c r="Y675" s="15"/>
+      <c r="Z675" s="15"/>
+      <c r="AA675" s="15"/>
+      <c r="AB675" s="15"/>
+      <c r="AC675" s="15"/>
+      <c r="AD675" s="15"/>
+      <c r="AE675" s="15"/>
+      <c r="AF675" s="15"/>
+      <c r="AG675" s="15"/>
+      <c r="AH675" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI675" s="24" t="s">
+      <c r="AI675" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="676" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A676" s="16" t="s">
+      <c r="A676" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B676" s="21">
+      <c r="B676" s="3">
         <v>43820</v>
       </c>
-      <c r="C676" s="16">
+      <c r="C676" s="15">
         <v>13</v>
       </c>
-      <c r="D676" s="16">
+      <c r="D676" s="15">
         <v>13401</v>
       </c>
-      <c r="E676" s="16" t="s">
+      <c r="E676" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="F676" s="16" t="s">
+      <c r="F676" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G676" s="16" t="s">
+      <c r="G676" s="15" t="s">
         <v>3918</v>
       </c>
-      <c r="H676" s="22">
+      <c r="H676" s="19">
         <v>36</v>
       </c>
-      <c r="I676" s="16"/>
-      <c r="J676" s="16"/>
-      <c r="K676" s="16" t="s">
+      <c r="I676" s="15"/>
+      <c r="J676" s="15"/>
+      <c r="K676" s="15" t="s">
         <v>3919</v>
       </c>
-      <c r="L676" s="16"/>
-      <c r="M676" s="16"/>
-      <c r="N676" s="16"/>
-      <c r="O676" s="16"/>
-      <c r="P676" s="22"/>
-      <c r="Q676" s="16"/>
-      <c r="R676" s="16"/>
-      <c r="S676" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T676" s="16"/>
-      <c r="U676" s="16"/>
-      <c r="V676" s="16"/>
-      <c r="W676" s="16"/>
-      <c r="X676" s="16"/>
-      <c r="Y676" s="16"/>
-      <c r="Z676" s="16"/>
-      <c r="AA676" s="16"/>
-      <c r="AB676" s="16"/>
-      <c r="AC676" s="16"/>
-      <c r="AD676" s="16"/>
-      <c r="AE676" s="16"/>
-      <c r="AF676" s="16"/>
-      <c r="AG676" s="16"/>
-      <c r="AH676" s="23" t="s">
+      <c r="L676" s="15"/>
+      <c r="M676" s="15"/>
+      <c r="N676" s="15"/>
+      <c r="O676" s="15"/>
+      <c r="P676" s="19"/>
+      <c r="Q676" s="15"/>
+      <c r="R676" s="15"/>
+      <c r="S676" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T676" s="15"/>
+      <c r="U676" s="15"/>
+      <c r="V676" s="15"/>
+      <c r="W676" s="15"/>
+      <c r="X676" s="15"/>
+      <c r="Y676" s="15"/>
+      <c r="Z676" s="15"/>
+      <c r="AA676" s="15"/>
+      <c r="AB676" s="15"/>
+      <c r="AC676" s="15"/>
+      <c r="AD676" s="15"/>
+      <c r="AE676" s="15"/>
+      <c r="AF676" s="15"/>
+      <c r="AG676" s="15"/>
+      <c r="AH676" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI676" s="24" t="s">
+      <c r="AI676" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="677" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A677" s="16" t="s">
+      <c r="A677" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B677" s="21">
+      <c r="B677" s="3">
         <v>44060</v>
       </c>
-      <c r="C677" s="16">
+      <c r="C677" s="15">
         <v>7</v>
       </c>
-      <c r="D677" s="16">
+      <c r="D677" s="15">
         <v>7102</v>
       </c>
-      <c r="E677" s="16" t="s">
+      <c r="E677" s="15" t="s">
         <v>2690</v>
       </c>
-      <c r="F677" s="16" t="s">
+      <c r="F677" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="G677" s="16" t="s">
+      <c r="G677" s="15" t="s">
         <v>3920</v>
       </c>
-      <c r="H677" s="22">
+      <c r="H677" s="19">
         <v>59</v>
       </c>
-      <c r="I677" s="16"/>
-      <c r="J677" s="16"/>
-      <c r="K677" s="16" t="s">
+      <c r="I677" s="15"/>
+      <c r="J677" s="15"/>
+      <c r="K677" s="15" t="s">
         <v>3921</v>
       </c>
-      <c r="L677" s="16"/>
-      <c r="M677" s="16"/>
-      <c r="N677" s="16"/>
-      <c r="O677" s="16"/>
-      <c r="P677" s="22"/>
-      <c r="Q677" s="16"/>
-      <c r="R677" s="16"/>
-      <c r="S677" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T677" s="16"/>
-      <c r="U677" s="16"/>
-      <c r="V677" s="16"/>
-      <c r="W677" s="16"/>
-      <c r="X677" s="16"/>
-      <c r="Y677" s="16"/>
-      <c r="Z677" s="16"/>
-      <c r="AA677" s="16"/>
-      <c r="AB677" s="16"/>
-      <c r="AC677" s="16"/>
-      <c r="AD677" s="16"/>
-      <c r="AE677" s="16"/>
-      <c r="AF677" s="16"/>
-      <c r="AG677" s="16"/>
-      <c r="AH677" s="23" t="s">
+      <c r="L677" s="15"/>
+      <c r="M677" s="15"/>
+      <c r="N677" s="15"/>
+      <c r="O677" s="15"/>
+      <c r="P677" s="19"/>
+      <c r="Q677" s="15"/>
+      <c r="R677" s="15"/>
+      <c r="S677" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T677" s="15"/>
+      <c r="U677" s="15"/>
+      <c r="V677" s="15"/>
+      <c r="W677" s="15"/>
+      <c r="X677" s="15"/>
+      <c r="Y677" s="15"/>
+      <c r="Z677" s="15"/>
+      <c r="AA677" s="15"/>
+      <c r="AB677" s="15"/>
+      <c r="AC677" s="15"/>
+      <c r="AD677" s="15"/>
+      <c r="AE677" s="15"/>
+      <c r="AF677" s="15"/>
+      <c r="AG677" s="15"/>
+      <c r="AH677" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI677" s="24" t="s">
+      <c r="AI677" s="21" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Género/Violencia contra Mujer/Femicidios Actualizado.xlsx
+++ b/Género/Violencia contra Mujer/Femicidios Actualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9371C4-20F3-4102-BEDF-FB4F6472F446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E50033-A331-4916-934A-5399483C0F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE5E2C69-330B-43A2-AB91-270594E6FDC2}"/>
   </bookViews>
@@ -11941,9 +11941,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -12022,6 +12019,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -12135,13 +12135,13 @@
   </sortState>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{AFA328BC-B1F6-487F-9229-7C317EC89FD8}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{0179DE5D-BA12-4586-904F-3245A847CA88}" name="Fecha" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0179DE5D-BA12-4586-904F-3245A847CA88}" name="Fecha" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{A423EA8F-9392-414E-B23D-F01C5BC65807}" name="Codreg"/>
     <tableColumn id="4" xr3:uid="{AA57850E-461A-4687-9A6F-3427A7E4D28D}" name="Codcom"/>
     <tableColumn id="5" xr3:uid="{23FAC148-1A5A-4665-AE40-9836F9AD1C77}" name="Comuna"/>
     <tableColumn id="6" xr3:uid="{2F10FD53-847E-49DD-A4FB-1C6087635F6C}" name="Región"/>
     <tableColumn id="7" xr3:uid="{09F8642E-4E4F-42F2-A5DC-7A4F4DC43545}" name="Nombre víctima"/>
-    <tableColumn id="8" xr3:uid="{DA3162F1-0484-40C1-B623-71D0E8454C54}" name="Edad Víctima" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DA3162F1-0484-40C1-B623-71D0E8454C54}" name="Edad Víctima" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{4E382CDC-6CB2-4FBF-998B-77B24ACAB8CD}" name="Nacionalidad Víctima"/>
     <tableColumn id="10" xr3:uid="{DBEA2817-E106-494A-B17F-770EF12F2041}" name="Ocupación Víctima"/>
     <tableColumn id="11" xr3:uid="{AE91F911-EBAF-47BD-9EA5-59BC5460CD54}" name="Información sobre el hecho"/>
@@ -12149,7 +12149,7 @@
     <tableColumn id="13" xr3:uid="{8EC2D936-D836-4936-991F-D29DFAA17CF2}" name="Relación víctima-femicida"/>
     <tableColumn id="16" xr3:uid="{D858A5D0-7245-48F3-88F1-12E942702570}" name="Categoría Red Chilena"/>
     <tableColumn id="17" xr3:uid="{8CC48998-30CF-464A-BEFF-ADF76FDB766F}" name="Nombre femicida"/>
-    <tableColumn id="18" xr3:uid="{520C810F-A4FD-40FB-87B6-9D405744914B}" name="Edad Femicida" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{520C810F-A4FD-40FB-87B6-9D405744914B}" name="Edad Femicida" dataDxfId="2"/>
     <tableColumn id="19" xr3:uid="{8DD7ADDD-AAF2-4BCF-AA91-FA43AE47A547}" name="Nacionalidad Femicida"/>
     <tableColumn id="20" xr3:uid="{5CB81593-BB92-49A0-9D61-28A95B7DA78E}" name="Ocupación Femicida"/>
     <tableColumn id="21" xr3:uid="{457A9F8E-A8E2-474D-AAB6-D17E45355AA8}" name="Suicidio"/>
@@ -12167,8 +12167,8 @@
     <tableColumn id="33" xr3:uid="{39E498DA-37C5-4DE9-A0BC-D5ED438C963A}" name="Sentencia penal adicional"/>
     <tableColumn id="34" xr3:uid="{16B0224D-A45E-4E48-AE8C-E3B88DE0B53C}" name="Información medios 1"/>
     <tableColumn id="35" xr3:uid="{C549522F-A97C-497B-97BF-880402CD5E48}" name="Información medios 2"/>
-    <tableColumn id="36" xr3:uid="{2544187A-87FA-45CF-A8F1-CBD577320BF7}" name="RED" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{139852B3-BBAB-4756-BCBF-74502C46D8BD}" name="MINISTERIO" dataDxfId="1"/>
+    <tableColumn id="36" xr3:uid="{2544187A-87FA-45CF-A8F1-CBD577320BF7}" name="RED" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{139852B3-BBAB-4756-BCBF-74502C46D8BD}" name="MINISTERIO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12474,7 +12474,7 @@
   <dimension ref="A1:AI677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B677"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
